--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDDB42E-71AE-5142-843D-80FEF7A9C88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA0490-6B96-F849-B5F1-DBA0C5707CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>Type</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>A string of identifier.</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -477,19 +486,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D29"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,10 +509,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -513,31 +525,40 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -545,41 +566,53 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -587,31 +620,40 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -619,31 +661,40 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA0490-6B96-F849-B5F1-DBA0C5707CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D59AB-F604-FB4A-91D8-28FD4C4F0879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>Type</t>
   </si>
@@ -99,6 +100,99 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>CALLS</t>
+  </si>
+  <si>
+    <t>INHERITS</t>
+  </si>
+  <si>
+    <t>TAKES</t>
+  </si>
+  <si>
+    <t>RETURNS</t>
+  </si>
+  <si>
+    <t>INSTANTIATES</t>
+  </si>
+  <si>
+    <t>USES</t>
+  </si>
+  <si>
+    <t>Relations</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>CONTAINS</t>
+  </si>
+  <si>
+    <t>Containment</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Instantiation</t>
+  </si>
+  <si>
+    <t>Utilization</t>
+  </si>
+  <si>
+    <t>Function USES Function</t>
+  </si>
+  <si>
+    <t>Class INHERITS Class</t>
+  </si>
+  <si>
+    <t>Module CONTAINS Class</t>
+  </si>
+  <si>
+    <t>Module CONTAINS Function</t>
+  </si>
+  <si>
+    <t>Module CONTAINS Variable</t>
+  </si>
+  <si>
+    <t>Class CONTAINS Method</t>
+  </si>
+  <si>
+    <t>Class CONTAINS Variable</t>
+  </si>
+  <si>
+    <t>Function CONTAINS Variable</t>
+  </si>
+  <si>
+    <t>Function TAKES Class</t>
+  </si>
+  <si>
+    <t>Function RETURNS Class</t>
+  </si>
+  <si>
+    <t>Class INSTANTIATES Variable</t>
+  </si>
+  <si>
+    <t>Module USES Variable</t>
+  </si>
+  <si>
+    <t>Class USES Variable</t>
+  </si>
+  <si>
+    <t>Function USES Variable</t>
   </si>
 </sst>
 </file>
@@ -486,16 +580,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F20" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,167 +790,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
+  <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B11"/>
@@ -863,4 +804,188 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C13:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D59AB-F604-FB4A-91D8-28FD4C4F0879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11A65E-FBDD-514F-AFED-971258A47A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Type</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Function USES Variable</t>
+  </si>
+  <si>
+    <t>Attributes</t>
   </si>
 </sst>
 </file>
@@ -582,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,7 +825,7 @@
     <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -835,8 +838,11 @@
       <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -850,7 +856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>31</v>
@@ -862,7 +868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>33</v>
@@ -874,7 +880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -882,7 +888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -890,7 +896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -898,7 +904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -906,7 +912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -914,7 +920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -926,7 +932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -938,7 +944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
@@ -950,7 +956,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>37</v>
@@ -962,7 +968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -970,7 +976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11A65E-FBDD-514F-AFED-971258A47A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30126C8D-A10F-154B-B4A2-2CEF12852E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,10 +792,6 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -813,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30126C8D-A10F-154B-B4A2-2CEF12852E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB56587-4321-F145-9BF0-5D2508FB5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>Type</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
     <t>A string of identifier.</t>
   </si>
   <si>
@@ -196,6 +193,24 @@
   </si>
   <si>
     <t>Attributes</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>One of public, protected or private.</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>One of function, method, classmethod or staticmethod.</t>
+  </si>
+  <si>
+    <t>Method (Function)</t>
   </si>
 </sst>
 </file>
@@ -583,15 +598,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="44.83203125" customWidth="1"/>
@@ -608,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -625,10 +641,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -638,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -651,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -666,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -679,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -692,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -705,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -720,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -733,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -743,25 +759,23 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -769,12 +783,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -784,22 +800,90 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B9:B12"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -826,54 +910,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -881,7 +965,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -889,7 +973,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -897,7 +981,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -905,7 +989,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -913,55 +997,55 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -969,7 +1053,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -977,7 +1061,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB56587-4321-F145-9BF0-5D2508FB5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D54F5C-8AA1-D344-9FA7-E94848677C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -88,15 +88,6 @@
   </si>
   <si>
     <t>A string of identifier.</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Boolean</t>
   </si>
   <si>
     <t>Relationship</t>
@@ -598,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,11 +600,10 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" customWidth="1"/>
+    <col min="4" max="4" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,13 +614,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -640,40 +627,31 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -681,53 +659,41 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -735,144 +701,111 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -910,54 +843,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -965,7 +898,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -973,7 +906,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -981,7 +914,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -989,7 +922,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,55 +930,55 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1053,7 +986,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1061,7 +994,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D54F5C-8AA1-D344-9FA7-E94848677C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC829E2-F5B1-3B43-8E8C-C64DE3C1082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Whether if is an abstract class.</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Function</t>
@@ -592,7 +589,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,19 +687,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -712,17 +709,17 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -732,19 +729,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -764,19 +761,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -786,17 +783,17 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -806,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +824,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,54 +840,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -898,7 +895,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -906,7 +903,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -914,7 +911,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,7 +919,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -930,55 +927,55 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,7 +983,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -994,7 +991,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC829E2-F5B1-3B43-8E8C-C64DE3C1082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870F401E-D366-E54A-A290-EEB5AD53C003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -192,20 +192,20 @@
     <t>One of public, protected or private.</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>One of function, method, classmethod or staticmethod.</t>
   </si>
   <si>
     <t>Method (Function)</t>
+  </si>
+  <si>
+    <t>subtype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,6 +218,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -251,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,10 +726,10 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,7 +745,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -757,63 +767,73 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A2:A20"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870F401E-D366-E54A-A290-EEB5AD53C003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A1EDD-1996-E646-AE7A-99C05E379C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Type</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>subtype</t>
+  </si>
+  <si>
+    <t>default_value</t>
+  </si>
+  <si>
+    <t>param_name</t>
   </si>
 </sst>
 </file>
@@ -598,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,10 +847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,6 +859,7 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -952,58 +959,62 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1011,16 +1022,27 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A16"/>
     <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A1EDD-1996-E646-AE7A-99C05E379C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D78A786-6651-7543-969D-154B55BED05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -63,9 +63,6 @@
     <t>qualified_name</t>
   </si>
   <si>
-    <t>Identifier's complete path including its scope.</t>
-  </si>
-  <si>
     <t>file_path</t>
   </si>
   <si>
@@ -78,15 +75,9 @@
     <t>is_abstract</t>
   </si>
   <si>
-    <t>Whether if is an abstract class.</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
-    <t>A string of identifier.</t>
-  </si>
-  <si>
     <t>Relationship</t>
   </si>
   <si>
@@ -205,6 +196,18 @@
   </si>
   <si>
     <t>param_name</t>
+  </si>
+  <si>
+    <t>The entity identifier.</t>
+  </si>
+  <si>
+    <t>The entity's complete identifier which includes its scope.</t>
+  </si>
+  <si>
+    <t>The file location of the entity.</t>
+  </si>
+  <si>
+    <t>Whether if the entity is an abstract class.</t>
   </si>
 </sst>
 </file>
@@ -604,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,7 +616,7 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="44.83203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -651,29 +654,29 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,39 +686,39 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -724,40 +727,40 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -766,40 +769,40 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -808,28 +811,28 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -849,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,54 +870,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,7 +925,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -930,7 +933,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -938,7 +941,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -946,7 +949,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -954,22 +957,22 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -978,43 +981,43 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1022,7 +1025,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,7 +1033,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D78A786-6651-7543-969D-154B55BED05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CC997-B14B-F640-97A8-391550F2332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -270,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,6 +898,7 @@
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -907,6 +911,7 @@
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -919,6 +924,7 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -927,6 +933,7 @@
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -935,6 +942,7 @@
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -943,6 +951,7 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -951,6 +960,7 @@
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -959,6 +969,7 @@
       <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -995,6 +1006,7 @@
       <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1007,6 +1019,7 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
@@ -1019,6 +1032,7 @@
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1027,6 +1041,7 @@
       <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1035,10 +1050,13 @@
       <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="E12:E16"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A16"/>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CC997-B14B-F640-97A8-391550F2332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C69BA-C06A-4943-93D7-40ABA6459EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Utilization</t>
   </si>
   <si>
-    <t>Function USES Function</t>
-  </si>
-  <si>
     <t>Class INHERITS Class</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Whether if the entity is an abstract class.</t>
+  </si>
+  <si>
+    <t>Function CALLS Function</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -731,17 +731,17 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -757,13 +757,13 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,17 +773,17 @@
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,19 +793,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -815,17 +815,17 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -835,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +856,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -922,7 +922,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -931,7 +931,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -940,7 +940,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -949,7 +949,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -958,7 +958,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -967,7 +967,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -980,10 +980,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -1030,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -1048,7 +1048,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5"/>
     </row>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C69BA-C06A-4943-93D7-40ABA6459EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B14D20-0BB9-F741-A035-8DB433442AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Type</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Function CALLS Function</t>
+  </si>
+  <si>
+    <t>arguments</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,7 +901,9 @@
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1055,8 +1060,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E2:E9"/>
     <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E3:E9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A16"/>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B14D20-0BB9-F741-A035-8DB433442AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18610B32-E773-A442-A171-A538E84CFC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Function USES Variable</t>
-  </si>
-  <si>
-    <t>Attributes</t>
   </si>
   <si>
     <t>Variable</t>
@@ -650,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -682,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -692,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -712,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -724,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -734,17 +731,17 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -760,13 +757,13 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -776,17 +773,17 @@
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -796,19 +793,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -818,17 +815,17 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -838,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +856,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -899,10 +896,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -988,7 +985,7 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,7 +994,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18610B32-E773-A442-A171-A538E84CFC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA162A41-AFAD-B244-81FC-DBEFCD3F274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Type</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>arguments</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>YIELDS</t>
+  </si>
+  <si>
+    <t>Function YIELDS Class</t>
   </si>
 </sst>
 </file>
@@ -853,10 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E12" sqref="E12:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,35 +1022,39 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -1050,20 +1063,29 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E12:E17"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A2:A17"/>
     <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
   </mergeCells>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA162A41-AFAD-B244-81FC-DBEFCD3F274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09729D92-026D-9E42-9F1E-4DBA53590CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Type</t>
   </si>
@@ -66,15 +66,9 @@
     <t>file_path</t>
   </si>
   <si>
-    <t>Code location.</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
-    <t>is_abstract</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>The file location of the entity.</t>
   </si>
   <si>
-    <t>Whether if the entity is an abstract class.</t>
-  </si>
-  <si>
     <t>Function CALLS Function</t>
   </si>
   <si>
@@ -217,13 +208,16 @@
   </si>
   <si>
     <t>Function YIELDS Class</t>
+  </si>
+  <si>
+    <t>(name, qualified_name and file_path)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +237,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -281,7 +282,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,215 +653,120 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B9:B12"/>
+  <mergeCells count="9">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -864,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12:E17"/>
     </sheetView>
   </sheetViews>
@@ -882,212 +794,212 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E12:E17"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09729D92-026D-9E42-9F1E-4DBA53590CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C7BA9E-774F-1D47-A6BD-53F0B38F7662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,67 +701,67 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B6:B7"/>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C7BA9E-774F-1D47-A6BD-53F0B38F7662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B4078-4FE1-4F4B-A8A1-C617B242F7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,12 +144,6 @@
     <t>Function CONTAINS Variable</t>
   </si>
   <si>
-    <t>Function TAKES Class</t>
-  </si>
-  <si>
-    <t>Function RETURNS Class</t>
-  </si>
-  <si>
     <t>Class INSTANTIATES Variable</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>The file location of the entity.</t>
   </si>
   <si>
-    <t>Function CALLS Function</t>
-  </si>
-  <si>
     <t>arguments</t>
   </si>
   <si>
@@ -207,10 +198,19 @@
     <t>YIELDS</t>
   </si>
   <si>
-    <t>Function YIELDS Class</t>
-  </si>
-  <si>
     <t>(name, qualified_name and file_path)</t>
+  </si>
+  <si>
+    <t>Function (or Method) CALLS Function (or Method)</t>
+  </si>
+  <si>
+    <t>Function (or Method) TAKES Class</t>
+  </si>
+  <si>
+    <t>Function (or Method) RETURNS Class</t>
+  </si>
+  <si>
+    <t>Function (or Method) YIELDS Class</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -673,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -692,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -702,57 +705,57 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -776,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +788,7 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -817,10 +820,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -902,20 +905,20 @@
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
+      <c r="D10" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -927,20 +930,20 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -953,7 +956,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -966,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -975,7 +978,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -984,7 +987,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6"/>
     </row>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B4078-4FE1-4F4B-A8A1-C617B242F7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B7006-8A07-6B42-A5F5-CD14F9F50CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>YIELDS</t>
   </si>
   <si>
-    <t>(name, qualified_name and file_path)</t>
-  </si>
-  <si>
     <t>Function (or Method) CALLS Function (or Method)</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Function (or Method) YIELDS Class</t>
+  </si>
+  <si>
+    <t>(name, qualified_name and file_path as previous)</t>
   </si>
 </sst>
 </file>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -715,7 +715,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -735,7 +735,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -755,7 +755,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>50</v>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -930,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -943,7 +943,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6"/>
     </row>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B7006-8A07-6B42-A5F5-CD14F9F50CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5868AC81-297E-774E-BC8B-CEC3944FAD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Type</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>(name, qualified_name and file_path as previous)</t>
+  </si>
+  <si>
+    <t>One of method, classmethod or staticmethod.</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +731,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5868AC81-297E-774E-BC8B-CEC3944FAD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E49A52-F8E1-E549-9709-3D9174B8A70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Type</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>One of method, classmethod or staticmethod.</t>
+  </si>
+  <si>
+    <t>is_abstract</t>
+  </si>
+  <si>
+    <t>Whether if the class is an abstract class.</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -278,23 +284,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,85 +697,96 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="7"/>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -840,7 +854,7 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -853,7 +867,7 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -862,7 +876,7 @@
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -871,7 +885,7 @@
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -880,7 +894,7 @@
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -889,7 +903,7 @@
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -898,7 +912,7 @@
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -908,7 +922,7 @@
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E10" t="s">
@@ -919,7 +933,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
@@ -935,7 +949,7 @@
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
@@ -948,7 +962,7 @@
       <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -961,7 +975,7 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -974,7 +988,7 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -983,7 +997,7 @@
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -992,20 +1006,20 @@
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E49A52-F8E1-E549-9709-3D9174B8A70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA9F515-D95B-E64F-B50C-3DA0E71F096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>Type</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Whether if the class is an abstract class.</t>
+  </si>
+  <si>
+    <t>Whether if the class is an abstract method.</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>(Attach to other entity labels)</t>
   </si>
 </sst>
 </file>
@@ -276,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -287,16 +296,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -633,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,10 +725,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -730,63 +745,84 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A12"/>
+  <mergeCells count="11">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -854,7 +890,7 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -867,7 +903,7 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -876,7 +912,7 @@
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -885,7 +921,7 @@
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -894,7 +930,7 @@
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -903,7 +939,7 @@
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -912,7 +948,7 @@
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -922,7 +958,7 @@
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E10" t="s">
@@ -933,7 +969,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
@@ -949,7 +985,7 @@
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
@@ -962,7 +998,7 @@
       <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -975,7 +1011,7 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -988,7 +1024,7 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -997,7 +1033,7 @@
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -1006,20 +1042,20 @@
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E12:E17"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA9F515-D95B-E64F-B50C-3DA0E71F096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D50384-C3AE-664A-B41C-913EEA57CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Type</t>
   </si>
@@ -93,9 +93,6 @@
     <t>INSTANTIATES</t>
   </si>
   <si>
-    <t>USES</t>
-  </si>
-  <si>
     <t>Relations</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Instantiation</t>
   </si>
   <si>
-    <t>Utilization</t>
-  </si>
-  <si>
     <t>Class INHERITS Class</t>
   </si>
   <si>
@@ -145,15 +139,6 @@
   </si>
   <si>
     <t>Class INSTANTIATES Variable</t>
-  </si>
-  <si>
-    <t>Module USES Variable</t>
-  </si>
-  <si>
-    <t>Class USES Variable</t>
-  </si>
-  <si>
-    <t>Function USES Variable</t>
   </si>
   <si>
     <t>Variable</t>
@@ -299,6 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,9 +297,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C12E2-2AC7-B146-AAAE-A94351B702F1}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -677,138 +662,138 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -830,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,20 +835,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -873,189 +858,156 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A17"/>
+  <mergeCells count="8">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="E12:E14"/>
     <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/scheme.xlsx
+++ b/tables/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D50384-C3AE-664A-B41C-913EEA57CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20702684-05DA-FC4A-A669-E0AF77E2F64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1220" yWindow="-21740" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
+    <workbookView xWindow="1320" yWindow="1940" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{10CFFBF3-28E6-1645-B42E-6685CCDD1360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Type</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>(Attach to other entity labels)</t>
+  </si>
+  <si>
+    <t>Function CONTAINS Function</t>
   </si>
 </sst>
 </file>
@@ -815,10 +818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77168F79-F22A-D146-9BC1-DF96BB2E74C4}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,77 +940,86 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
